--- a/Scenario docs/Test Scenario OrangeHRM.xlsx
+++ b/Scenario docs/Test Scenario OrangeHRM.xlsx
@@ -679,8 +679,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="mmm\-yy"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="mmm\-yy"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -717,16 +717,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -741,34 +748,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -816,17 +824,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -845,9 +846,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -880,7 +880,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,43 +898,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,13 +946,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,97 +1060,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,8 +1091,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1103,6 +1105,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1118,6 +1135,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1147,21 +1173,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1175,23 +1186,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1209,130 +1209,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1516,10 +1516,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="en-GB"/>
               <a:t>Test Scenario Chart</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1703,7 +1701,6 @@
             <c:dLbl>
               <c:idx val="0"/>
               <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1729,13 +1726,11 @@
               </c:txPr>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="1"/>
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
@@ -1743,7 +1738,6 @@
             <c:dLbl>
               <c:idx val="1"/>
               <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1769,13 +1763,11 @@
               </c:txPr>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="1"/>
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
@@ -1783,7 +1775,6 @@
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1809,13 +1800,11 @@
               </c:txPr>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="1"/>
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
@@ -1823,7 +1812,6 @@
             <c:dLbl>
               <c:idx val="3"/>
               <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1849,13 +1837,11 @@
               </c:txPr>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="1"/>
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
@@ -1863,7 +1849,6 @@
             <c:dLbl>
               <c:idx val="4"/>
               <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1889,13 +1874,11 @@
               </c:txPr>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="1"/>
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
@@ -1903,7 +1886,6 @@
             <c:dLbl>
               <c:idx val="5"/>
               <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1929,13 +1911,11 @@
               </c:txPr>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="1"/>
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
@@ -1943,7 +1923,6 @@
             <c:dLbl>
               <c:idx val="6"/>
               <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1971,13 +1950,11 @@
               </c:txPr>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="1"/>
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
@@ -1985,7 +1962,6 @@
             <c:dLbl>
               <c:idx val="7"/>
               <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2013,18 +1989,15 @@
               </c:txPr>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="1"/>
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2050,7 +2023,7 @@
             </c:txPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
@@ -2143,1168 +2116,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr/>
-          <c:explosion val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent3"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent4"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent5"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent6"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Big Project OrangeHRM'!$E$2:$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Total Test Case</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Positive Test</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Negative Test</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Manual Test</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Automation Test</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Realized Test</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Total Pass Test</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Total Fail Test</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Big Project OrangeHRM'!$E$4:$L$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr/>
-          <c:explosion val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent3"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent4"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent5"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent6"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Big Project OrangeHRM'!$E$2:$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Total Test Case</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Positive Test</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Negative Test</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Manual Test</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Automation Test</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Realized Test</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Total Pass Test</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Total Fail Test</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Big Project OrangeHRM'!$E$5:$L$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -3315,6 +2126,1156 @@
           <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr/>
+                <c:explosion val="0"/>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="2"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="3"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="4"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="5"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="6"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="7"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dLbls>
+                  <c:dLbl>
+                    <c:idx val="0"/>
+                    <c:layout/>
+                    <c:spPr>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                    <c:txPr>
+                      <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr>
+                          <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="accent1"/>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:defRPr>
+                        </a:pPr>
+                      </a:p>
+                    </c:txPr>
+                    <c:dLblPos val="outEnd"/>
+                    <c:showLegendKey val="0"/>
+                    <c:showVal val="1"/>
+                    <c:showCatName val="1"/>
+                    <c:showSerName val="0"/>
+                    <c:showPercent val="1"/>
+                    <c:showBubbleSize val="0"/>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                    </c:extLst>
+                  </c:dLbl>
+                  <c:dLbl>
+                    <c:idx val="1"/>
+                    <c:layout/>
+                    <c:spPr>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                    <c:txPr>
+                      <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr>
+                          <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="accent2"/>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:defRPr>
+                        </a:pPr>
+                      </a:p>
+                    </c:txPr>
+                    <c:dLblPos val="outEnd"/>
+                    <c:showLegendKey val="0"/>
+                    <c:showVal val="1"/>
+                    <c:showCatName val="1"/>
+                    <c:showSerName val="0"/>
+                    <c:showPercent val="1"/>
+                    <c:showBubbleSize val="0"/>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                    </c:extLst>
+                  </c:dLbl>
+                  <c:dLbl>
+                    <c:idx val="2"/>
+                    <c:layout/>
+                    <c:spPr>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                    <c:txPr>
+                      <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr>
+                          <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="accent3"/>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:defRPr>
+                        </a:pPr>
+                      </a:p>
+                    </c:txPr>
+                    <c:dLblPos val="outEnd"/>
+                    <c:showLegendKey val="0"/>
+                    <c:showVal val="1"/>
+                    <c:showCatName val="1"/>
+                    <c:showSerName val="0"/>
+                    <c:showPercent val="1"/>
+                    <c:showBubbleSize val="0"/>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                    </c:extLst>
+                  </c:dLbl>
+                  <c:dLbl>
+                    <c:idx val="3"/>
+                    <c:layout/>
+                    <c:spPr>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                    <c:txPr>
+                      <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr>
+                          <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="accent4"/>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:defRPr>
+                        </a:pPr>
+                      </a:p>
+                    </c:txPr>
+                    <c:dLblPos val="outEnd"/>
+                    <c:showLegendKey val="0"/>
+                    <c:showVal val="1"/>
+                    <c:showCatName val="1"/>
+                    <c:showSerName val="0"/>
+                    <c:showPercent val="1"/>
+                    <c:showBubbleSize val="0"/>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                    </c:extLst>
+                  </c:dLbl>
+                  <c:dLbl>
+                    <c:idx val="4"/>
+                    <c:layout/>
+                    <c:spPr>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                    <c:txPr>
+                      <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr>
+                          <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="accent5"/>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:defRPr>
+                        </a:pPr>
+                      </a:p>
+                    </c:txPr>
+                    <c:dLblPos val="outEnd"/>
+                    <c:showLegendKey val="0"/>
+                    <c:showVal val="1"/>
+                    <c:showCatName val="1"/>
+                    <c:showSerName val="0"/>
+                    <c:showPercent val="1"/>
+                    <c:showBubbleSize val="0"/>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                    </c:extLst>
+                  </c:dLbl>
+                  <c:dLbl>
+                    <c:idx val="5"/>
+                    <c:layout/>
+                    <c:spPr>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                    <c:txPr>
+                      <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr>
+                          <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="accent6"/>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:defRPr>
+                        </a:pPr>
+                      </a:p>
+                    </c:txPr>
+                    <c:dLblPos val="outEnd"/>
+                    <c:showLegendKey val="0"/>
+                    <c:showVal val="1"/>
+                    <c:showCatName val="1"/>
+                    <c:showSerName val="0"/>
+                    <c:showPercent val="1"/>
+                    <c:showBubbleSize val="0"/>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                    </c:extLst>
+                  </c:dLbl>
+                  <c:dLbl>
+                    <c:idx val="6"/>
+                    <c:layout/>
+                    <c:spPr>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                    <c:txPr>
+                      <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr>
+                          <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="accent1">
+                                <a:lumMod val="60000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:defRPr>
+                        </a:pPr>
+                      </a:p>
+                    </c:txPr>
+                    <c:dLblPos val="outEnd"/>
+                    <c:showLegendKey val="0"/>
+                    <c:showVal val="1"/>
+                    <c:showCatName val="1"/>
+                    <c:showSerName val="0"/>
+                    <c:showPercent val="1"/>
+                    <c:showBubbleSize val="0"/>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                    </c:extLst>
+                  </c:dLbl>
+                  <c:dLbl>
+                    <c:idx val="7"/>
+                    <c:layout/>
+                    <c:spPr>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                    <c:txPr>
+                      <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr>
+                          <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="accent2">
+                                <a:lumMod val="60000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:defRPr>
+                        </a:pPr>
+                      </a:p>
+                    </c:txPr>
+                    <c:dLblPos val="outEnd"/>
+                    <c:showLegendKey val="0"/>
+                    <c:showVal val="1"/>
+                    <c:showCatName val="1"/>
+                    <c:showSerName val="0"/>
+                    <c:showPercent val="1"/>
+                    <c:showBubbleSize val="0"/>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                    </c:extLst>
+                  </c:dLbl>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="accent2"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="1"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:layout/>
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref/>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Big Project OrangeHRM'!$E$2:$L$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>Total Test Case</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Positive Test</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Negative Test</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Manual Test</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Automation Test</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Realized Test</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Total Pass Test</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Total Fail Test</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Big Project OrangeHRM'!$E$4:$L$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredPieSeries>
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:spPr/>
+                <c:explosion val="0"/>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="2"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="3"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="4"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="5"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="6"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="7"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dLbls>
+                  <c:dLbl>
+                    <c:idx val="0"/>
+                    <c:layout/>
+                    <c:spPr>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                    <c:txPr>
+                      <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr>
+                          <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="accent1"/>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:defRPr>
+                        </a:pPr>
+                      </a:p>
+                    </c:txPr>
+                    <c:dLblPos val="outEnd"/>
+                    <c:showLegendKey val="0"/>
+                    <c:showVal val="1"/>
+                    <c:showCatName val="1"/>
+                    <c:showSerName val="0"/>
+                    <c:showPercent val="1"/>
+                    <c:showBubbleSize val="0"/>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                    </c:extLst>
+                  </c:dLbl>
+                  <c:dLbl>
+                    <c:idx val="1"/>
+                    <c:layout/>
+                    <c:spPr>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                    <c:txPr>
+                      <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr>
+                          <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="accent2"/>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:defRPr>
+                        </a:pPr>
+                      </a:p>
+                    </c:txPr>
+                    <c:dLblPos val="outEnd"/>
+                    <c:showLegendKey val="0"/>
+                    <c:showVal val="1"/>
+                    <c:showCatName val="1"/>
+                    <c:showSerName val="0"/>
+                    <c:showPercent val="1"/>
+                    <c:showBubbleSize val="0"/>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                    </c:extLst>
+                  </c:dLbl>
+                  <c:dLbl>
+                    <c:idx val="2"/>
+                    <c:layout/>
+                    <c:spPr>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                    <c:txPr>
+                      <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr>
+                          <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="accent3"/>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:defRPr>
+                        </a:pPr>
+                      </a:p>
+                    </c:txPr>
+                    <c:dLblPos val="outEnd"/>
+                    <c:showLegendKey val="0"/>
+                    <c:showVal val="1"/>
+                    <c:showCatName val="1"/>
+                    <c:showSerName val="0"/>
+                    <c:showPercent val="1"/>
+                    <c:showBubbleSize val="0"/>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                    </c:extLst>
+                  </c:dLbl>
+                  <c:dLbl>
+                    <c:idx val="3"/>
+                    <c:layout/>
+                    <c:spPr>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                    <c:txPr>
+                      <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr>
+                          <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="accent4"/>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:defRPr>
+                        </a:pPr>
+                      </a:p>
+                    </c:txPr>
+                    <c:dLblPos val="outEnd"/>
+                    <c:showLegendKey val="0"/>
+                    <c:showVal val="1"/>
+                    <c:showCatName val="1"/>
+                    <c:showSerName val="0"/>
+                    <c:showPercent val="1"/>
+                    <c:showBubbleSize val="0"/>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                    </c:extLst>
+                  </c:dLbl>
+                  <c:dLbl>
+                    <c:idx val="4"/>
+                    <c:layout/>
+                    <c:spPr>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                    <c:txPr>
+                      <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr>
+                          <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="accent5"/>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:defRPr>
+                        </a:pPr>
+                      </a:p>
+                    </c:txPr>
+                    <c:dLblPos val="outEnd"/>
+                    <c:showLegendKey val="0"/>
+                    <c:showVal val="1"/>
+                    <c:showCatName val="1"/>
+                    <c:showSerName val="0"/>
+                    <c:showPercent val="1"/>
+                    <c:showBubbleSize val="0"/>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                    </c:extLst>
+                  </c:dLbl>
+                  <c:dLbl>
+                    <c:idx val="5"/>
+                    <c:layout/>
+                    <c:spPr>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                    <c:txPr>
+                      <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr>
+                          <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="accent6"/>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:defRPr>
+                        </a:pPr>
+                      </a:p>
+                    </c:txPr>
+                    <c:dLblPos val="outEnd"/>
+                    <c:showLegendKey val="0"/>
+                    <c:showVal val="1"/>
+                    <c:showCatName val="1"/>
+                    <c:showSerName val="0"/>
+                    <c:showPercent val="1"/>
+                    <c:showBubbleSize val="0"/>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                    </c:extLst>
+                  </c:dLbl>
+                  <c:dLbl>
+                    <c:idx val="6"/>
+                    <c:layout/>
+                    <c:spPr>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                    <c:txPr>
+                      <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr>
+                          <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="accent1">
+                                <a:lumMod val="60000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:defRPr>
+                        </a:pPr>
+                      </a:p>
+                    </c:txPr>
+                    <c:dLblPos val="outEnd"/>
+                    <c:showLegendKey val="0"/>
+                    <c:showVal val="1"/>
+                    <c:showCatName val="1"/>
+                    <c:showSerName val="0"/>
+                    <c:showPercent val="1"/>
+                    <c:showBubbleSize val="0"/>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                    </c:extLst>
+                  </c:dLbl>
+                  <c:dLbl>
+                    <c:idx val="7"/>
+                    <c:layout/>
+                    <c:spPr>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                    <c:txPr>
+                      <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr>
+                          <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="accent2">
+                                <a:lumMod val="60000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:defRPr>
+                        </a:pPr>
+                      </a:p>
+                    </c:txPr>
+                    <c:dLblPos val="outEnd"/>
+                    <c:showLegendKey val="0"/>
+                    <c:showVal val="1"/>
+                    <c:showCatName val="1"/>
+                    <c:showSerName val="0"/>
+                    <c:showPercent val="1"/>
+                    <c:showBubbleSize val="0"/>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                    </c:extLst>
+                  </c:dLbl>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="accent3"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="1"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:layout/>
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref/>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Big Project OrangeHRM'!$E$2:$L$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>Total Test Case</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Positive Test</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Negative Test</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Manual Test</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Automation Test</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Realized Test</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Total Pass Test</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Total Fail Test</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Big Project OrangeHRM'!$E$5:$L$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredPieSeries>
+          </c:ext>
+        </c:extLst>
       </c:pieChart>
       <c:spPr>
         <a:noFill/>
@@ -3334,14 +3295,15 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
-    <a:effectLst/>
+    <a:effectLst>
+      <a:softEdge rad="50800"/>
+    </a:effectLst>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
@@ -3966,24 +3928,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>67945</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>84455</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>128270</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>412750</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>306705</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="22889845" y="274955"/>
-        <a:ext cx="8594725" cy="4760595"/>
+        <a:off x="22926675" y="298450"/>
+        <a:ext cx="7115175" cy="4008755"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4257,7 +4219,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
